--- a/MakeBread/Assets/Excel/BreadDate.xlsx
+++ b/MakeBread/Assets/Excel/BreadDate.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hb21a035/Documents/MakeBread/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hb21a035/Documents/MakeBread_Git/MakeBread/Assets/Excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CFF1AEA-6835-E54B-8901-6678006C0F82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5BCA11E-FFBE-D94F-A953-420872657B3D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="500" yWindow="600" windowWidth="28300" windowHeight="16160" xr2:uid="{A67705B6-AD14-BC44-BA97-BEDBD709D183}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="14280" windowHeight="16320" xr2:uid="{A67705B6-AD14-BC44-BA97-BEDBD709D183}"/>
   </bookViews>
   <sheets>
     <sheet name="Bread_date" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
   <si>
     <t>id</t>
     <phoneticPr fontId="1"/>
@@ -87,6 +87,96 @@
     <rPh sb="0" eb="1">
       <t>ウミ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>swe_02</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>シリンの蜜</t>
+    <rPh sb="4" eb="5">
+      <t xml:space="preserve">ミツ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>swe_03</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>罪の粉</t>
+    <rPh sb="0" eb="1">
+      <t>ツミノ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>swe_04</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>スライムメロン</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>spi_02</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>炎の香辛料</t>
+    <rPh sb="0" eb="1">
+      <t>ホノオ</t>
+    </rPh>
+    <rPh sb="2" eb="5">
+      <t>コウシンリョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>salt_02</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>マルクバター</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>uid</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>047822B3790000</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>04A928AB790000</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>04D3F4AA790000</t>
+  </si>
+  <si>
+    <t>04D392B1790000</t>
+  </si>
+  <si>
+    <t>04B60BB0790000</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>04BCC9B2790000</t>
+  </si>
+  <si>
+    <t>041ED1B0790000</t>
+  </si>
+  <si>
+    <t>047373B3790000</t>
+  </si>
+  <si>
+    <t>049D4AB3790000</t>
+  </si>
+  <si>
+    <t>no</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -451,70 +541,188 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D00DF560-7FC8-4641-9DA6-1ECEF8377B32}">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
   <cols>
-    <col min="2" max="2" width="14.85546875" customWidth="1"/>
+    <col min="2" max="2" width="10.140625" customWidth="1"/>
+    <col min="3" max="3" width="14.7109375" customWidth="1"/>
+    <col min="4" max="4" width="5.85546875" customWidth="1"/>
+    <col min="5" max="5" width="16.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" t="s">
+      <c r="E1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
         <v>3</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>7</v>
       </c>
-      <c r="C2">
+      <c r="D2">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" t="s">
+      <c r="E2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5">
         <v>4</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" t="s">
         <v>8</v>
       </c>
-      <c r="C3">
+      <c r="D6">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" t="s">
+      <c r="E6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7">
+        <v>2</v>
+      </c>
+      <c r="E7" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
         <v>5</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C8" t="s">
         <v>9</v>
       </c>
-      <c r="C4">
+      <c r="D8">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" t="s">
+      <c r="E8" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
         <v>6</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C9" t="s">
         <v>10</v>
       </c>
-      <c r="C5">
+      <c r="D9">
         <v>4</v>
+      </c>
+      <c r="E9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10" t="s">
+        <v>20</v>
+      </c>
+      <c r="D10">
+        <v>4</v>
+      </c>
+      <c r="E10" t="s">
+        <v>30</v>
       </c>
     </row>
   </sheetData>

--- a/MakeBread/Assets/Excel/BreadDate.xlsx
+++ b/MakeBread/Assets/Excel/BreadDate.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hb21a035/Documents/MakeBread_Git/MakeBread/Assets/Excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5BCA11E-FFBE-D94F-A953-420872657B3D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C13E0286-70F4-6548-9EE8-2154916070B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="14280" windowHeight="16320" xr2:uid="{A67705B6-AD14-BC44-BA97-BEDBD709D183}"/>
+    <workbookView xWindow="14520" yWindow="700" windowWidth="14280" windowHeight="16200" xr2:uid="{A67705B6-AD14-BC44-BA97-BEDBD709D183}"/>
   </bookViews>
   <sheets>
     <sheet name="Bread_date" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="41">
   <si>
     <t>id</t>
     <phoneticPr fontId="1"/>
@@ -177,6 +177,42 @@
   </si>
   <si>
     <t>no</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>breadname</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>マルゲリータ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>カレーパン</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ミルクパン</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ドーナツ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>メロンパン</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>クロワッサン</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>フランスパン</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>フルーツタルト</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -541,10 +577,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D00DF560-7FC8-4641-9DA6-1ECEF8377B32}">
-  <dimension ref="A1:E10"/>
+  <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -555,7 +591,7 @@
     <col min="5" max="5" width="16.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:6">
       <c r="A1" t="s">
         <v>31</v>
       </c>
@@ -571,8 +607,11 @@
       <c r="E1" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="F1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2">
         <v>1</v>
       </c>
@@ -588,8 +627,11 @@
       <c r="E2" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="3" spans="1:5">
+      <c r="F2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3">
         <v>2</v>
       </c>
@@ -605,8 +647,11 @@
       <c r="E3" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="4" spans="1:5">
+      <c r="F3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4">
         <v>3</v>
       </c>
@@ -622,8 +667,11 @@
       <c r="E4" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="5" spans="1:5">
+      <c r="F4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5">
         <v>4</v>
       </c>
@@ -639,8 +687,11 @@
       <c r="E5" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="6" spans="1:5">
+      <c r="F5" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6">
         <v>5</v>
       </c>
@@ -656,8 +707,11 @@
       <c r="E6" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="7" spans="1:5">
+      <c r="F6" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7">
         <v>6</v>
       </c>
@@ -673,8 +727,11 @@
       <c r="E7" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="8" spans="1:5">
+      <c r="F7" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8">
         <v>7</v>
       </c>
@@ -690,8 +747,11 @@
       <c r="E8" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="9" spans="1:5">
+      <c r="F8" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9">
         <v>8</v>
       </c>
@@ -707,8 +767,11 @@
       <c r="E9" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="10" spans="1:5">
+      <c r="F9" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
       <c r="A10">
         <v>9</v>
       </c>
@@ -723,6 +786,9 @@
       </c>
       <c r="E10" t="s">
         <v>30</v>
+      </c>
+      <c r="F10" t="s">
+        <v>39</v>
       </c>
     </row>
   </sheetData>

--- a/MakeBread/Assets/Excel/BreadDate.xlsx
+++ b/MakeBread/Assets/Excel/BreadDate.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hb21a035/Documents/MakeBread_Git/MakeBread/Assets/Excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C13E0286-70F4-6548-9EE8-2154916070B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F372FC3-876D-744F-B479-F5AEE41412CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14520" yWindow="700" windowWidth="14280" windowHeight="16200" xr2:uid="{A67705B6-AD14-BC44-BA97-BEDBD709D183}"/>
+    <workbookView xWindow="14520" yWindow="500" windowWidth="14280" windowHeight="16200" xr2:uid="{A67705B6-AD14-BC44-BA97-BEDBD709D183}"/>
   </bookViews>
   <sheets>
     <sheet name="Bread_date" sheetId="1" r:id="rId1"/>
@@ -154,9 +154,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>04D3F4AA790000</t>
-  </si>
-  <si>
     <t>04D392B1790000</t>
   </si>
   <si>
@@ -213,6 +210,10 @@
   </si>
   <si>
     <t>フルーツタルト</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>04ABEFB0790000</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -580,7 +581,7 @@
   <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -593,7 +594,7 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -608,7 +609,7 @@
         <v>21</v>
       </c>
       <c r="F1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -628,7 +629,7 @@
         <v>22</v>
       </c>
       <c r="F2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -645,10 +646,10 @@
         <v>1</v>
       </c>
       <c r="E3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -665,10 +666,10 @@
         <v>1</v>
       </c>
       <c r="E4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -685,10 +686,10 @@
         <v>1</v>
       </c>
       <c r="E5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -708,7 +709,7 @@
         <v>23</v>
       </c>
       <c r="F6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -725,10 +726,10 @@
         <v>2</v>
       </c>
       <c r="E7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -745,10 +746,10 @@
         <v>3</v>
       </c>
       <c r="E8" t="s">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="F8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -765,10 +766,10 @@
         <v>4</v>
       </c>
       <c r="E9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -785,10 +786,10 @@
         <v>4</v>
       </c>
       <c r="E10" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>

--- a/MakeBread/Assets/Excel/BreadDate.xlsx
+++ b/MakeBread/Assets/Excel/BreadDate.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hb21a035/Documents/MakeBread_Git/MakeBread/Assets/Excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F372FC3-876D-744F-B479-F5AEE41412CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85720ADA-3321-314B-AB8C-2F830B7F153C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14520" yWindow="500" windowWidth="14280" windowHeight="16200" xr2:uid="{A67705B6-AD14-BC44-BA97-BEDBD709D183}"/>
+    <workbookView xWindow="9780" yWindow="680" windowWidth="17020" windowHeight="16200" xr2:uid="{A67705B6-AD14-BC44-BA97-BEDBD709D183}"/>
   </bookViews>
   <sheets>
     <sheet name="Bread_date" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="52">
   <si>
     <t>id</t>
     <phoneticPr fontId="1"/>
@@ -193,27 +193,230 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>ドーナツ</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>メロンパン</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>クロワッサン</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>フランスパン</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>フルーツタルト</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>04ABEFB0790000</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>シオワッサン</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>バターフランス</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>サワータルト</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>みつドーナツ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>itemtext</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>breadtext</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>モグモグ牧場自慢の美味しい牛乳。パンに混ぜて焼くと甘味が増す。</t>
+    <rPh sb="6" eb="8">
+      <t>ジマn</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>オイシイ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ギュウニュウ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>アマミ</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t xml:space="preserve">マス </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>暖かい地域に住むシリンバチから採取した蜂蜜。サラッとしていて、さっぱりとした甘味が特徴。お菓子によく用いられる。</t>
+    <rPh sb="0" eb="1">
+      <t>アタタカ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>ハチミテゥ</t>
+    </rPh>
+    <rPh sb="38" eb="40">
+      <t>アマミ</t>
+    </rPh>
+    <rPh sb="41" eb="43">
+      <t>トクチョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>甘い調味料といったらこれ。人を虜にする甘さなので罪のコナと呼ばれるようになった、最高級のお砂糖。</t>
+    <rPh sb="0" eb="1">
+      <t>アマイ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>ヒト</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>ツミ</t>
+    </rPh>
+    <rPh sb="40" eb="43">
+      <t>サイコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>大きく甘くするためにメロンをスライムで覆って育てた。食べるときはスライムをきれいに取り除く技術が必要。</t>
+    <rPh sb="0" eb="1">
+      <t>オオキク</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>オオッテ</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>ソダテ</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>タベ</t>
+    </rPh>
+    <rPh sb="45" eb="47">
+      <t>ギジュテゥ</t>
+    </rPh>
+    <rPh sb="48" eb="50">
+      <t>ヒツヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>暑い砂漠の環境に耐えているうちに辛味が増していった唐辛子。味のアクセントにぴったり。</t>
+    <rPh sb="5" eb="7">
+      <t>アツイ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>カラミ</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>マシテ</t>
+    </rPh>
+    <rPh sb="25" eb="28">
+      <t>トウガラセィ</t>
+    </rPh>
+    <rPh sb="29" eb="30">
+      <t>アジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>火山地域に生息している植物の実を細かく砕いたもの。スパイシーな香と、程よい辛味で食欲をそそる。</t>
+    <rPh sb="0" eb="4">
+      <t>カザn</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>セイソク</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t xml:space="preserve">ミ </t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>コマカ</t>
+    </rPh>
+    <rPh sb="31" eb="32">
+      <t>カオリ</t>
+    </rPh>
+    <rPh sb="34" eb="35">
+      <t>ホドヨイ</t>
+    </rPh>
+    <rPh sb="37" eb="39">
+      <t>カラミ</t>
+    </rPh>
+    <rPh sb="40" eb="42">
+      <t>ショクヨク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>とても酸味の強い果実。主に海の近くで栽培される。パンの印象をガラッと変える味わい。</t>
+    <rPh sb="3" eb="5">
+      <t>サンミ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>カジテゥ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>オモニ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>ウミ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>古くから愛される基本的な調味料。塩。海の水を蒸発させると得られることから海の材料だと考えられている。</t>
+    <rPh sb="0" eb="1">
+      <t>フルク</t>
+    </rPh>
+    <rPh sb="8" eb="11">
+      <t>キホn</t>
+    </rPh>
+    <rPh sb="12" eb="15">
+      <t>チョウ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t xml:space="preserve">シオ </t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>ウミ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>ジョウハテゥ</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>エラレ</t>
+    </rPh>
+    <rPh sb="36" eb="37">
+      <t>ウミ</t>
+    </rPh>
+    <rPh sb="38" eb="40">
+      <t>ザイリョウ</t>
+    </rPh>
+    <rPh sb="42" eb="43">
+      <t>カンガエ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>マルクスープで作られたバターで、モグモグ牧場の人気商品。パンの材料にもトッピングにもなる優れもの。甘味が抑えられ、塩味が増している。</t>
+    <rPh sb="23" eb="27">
+      <t>ニンキ</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>ザイリョウン</t>
+    </rPh>
+    <rPh sb="44" eb="45">
+      <t>スグレ</t>
+    </rPh>
+    <rPh sb="49" eb="51">
+      <t>アマミ</t>
+    </rPh>
+    <rPh sb="57" eb="58">
+      <t>シオ</t>
+    </rPh>
+    <rPh sb="58" eb="59">
+      <t>アジ</t>
+    </rPh>
+    <rPh sb="60" eb="61">
+      <t>マシテイル</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -578,10 +781,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D00DF560-7FC8-4641-9DA6-1ECEF8377B32}">
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -592,7 +795,7 @@
     <col min="5" max="5" width="16.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:8">
       <c r="A1" t="s">
         <v>30</v>
       </c>
@@ -611,8 +814,14 @@
       <c r="F1" t="s">
         <v>31</v>
       </c>
+      <c r="G1" t="s">
+        <v>41</v>
+      </c>
+      <c r="H1" t="s">
+        <v>42</v>
+      </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:8">
       <c r="A2">
         <v>1</v>
       </c>
@@ -631,8 +840,11 @@
       <c r="F2" t="s">
         <v>34</v>
       </c>
+      <c r="G2" t="s">
+        <v>43</v>
+      </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:8">
       <c r="A3">
         <v>2</v>
       </c>
@@ -649,10 +861,13 @@
         <v>25</v>
       </c>
       <c r="F3" t="s">
-        <v>35</v>
+        <v>40</v>
+      </c>
+      <c r="G3" t="s">
+        <v>44</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:8">
       <c r="A4">
         <v>3</v>
       </c>
@@ -669,10 +884,13 @@
         <v>26</v>
       </c>
       <c r="F4" t="s">
-        <v>35</v>
+        <v>40</v>
+      </c>
+      <c r="G4" t="s">
+        <v>45</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:8">
       <c r="A5">
         <v>4</v>
       </c>
@@ -689,10 +907,13 @@
         <v>27</v>
       </c>
       <c r="F5" t="s">
-        <v>36</v>
+        <v>35</v>
+      </c>
+      <c r="G5" t="s">
+        <v>46</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:8">
       <c r="A6">
         <v>5</v>
       </c>
@@ -711,8 +932,11 @@
       <c r="F6" t="s">
         <v>32</v>
       </c>
+      <c r="G6" t="s">
+        <v>47</v>
+      </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:8">
       <c r="A7">
         <v>6</v>
       </c>
@@ -731,8 +955,11 @@
       <c r="F7" t="s">
         <v>33</v>
       </c>
+      <c r="G7" t="s">
+        <v>48</v>
+      </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:8">
       <c r="A8">
         <v>7</v>
       </c>
@@ -746,13 +973,16 @@
         <v>3</v>
       </c>
       <c r="E8" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="F8" t="s">
         <v>39</v>
       </c>
+      <c r="G8" t="s">
+        <v>49</v>
+      </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:8">
       <c r="A9">
         <v>8</v>
       </c>
@@ -771,8 +1001,11 @@
       <c r="F9" t="s">
         <v>37</v>
       </c>
+      <c r="G9" t="s">
+        <v>50</v>
+      </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:8">
       <c r="A10">
         <v>9</v>
       </c>
@@ -790,6 +1023,9 @@
       </c>
       <c r="F10" t="s">
         <v>38</v>
+      </c>
+      <c r="G10" t="s">
+        <v>51</v>
       </c>
     </row>
   </sheetData>

--- a/MakeBread/Assets/Excel/BreadDate.xlsx
+++ b/MakeBread/Assets/Excel/BreadDate.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hb21a035/Documents/MakeBread_Git/MakeBread/Assets/Excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85720ADA-3321-314B-AB8C-2F830B7F153C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A337A07E-A1E9-184B-AD2B-31271ACAC40E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9780" yWindow="680" windowWidth="17020" windowHeight="16200" xr2:uid="{A67705B6-AD14-BC44-BA97-BEDBD709D183}"/>
+    <workbookView xWindow="9780" yWindow="620" windowWidth="17020" windowHeight="16200" xr2:uid="{A67705B6-AD14-BC44-BA97-BEDBD709D183}"/>
   </bookViews>
   <sheets>
     <sheet name="Bread_date" sheetId="1" r:id="rId1"/>
@@ -260,22 +260,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>甘い調味料といったらこれ。人を虜にする甘さなので罪のコナと呼ばれるようになった、最高級のお砂糖。</t>
-    <rPh sb="0" eb="1">
-      <t>アマイ</t>
-    </rPh>
-    <rPh sb="13" eb="14">
-      <t>ヒト</t>
-    </rPh>
-    <rPh sb="24" eb="25">
-      <t>ツミ</t>
-    </rPh>
-    <rPh sb="40" eb="43">
-      <t>サイコウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>大きく甘くするためにメロンをスライムで覆って育てた。食べるときはスライムをきれいに取り除く技術が必要。</t>
     <rPh sb="0" eb="1">
       <t>オオキク</t>
@@ -416,6 +400,25 @@
     </rPh>
     <rPh sb="60" eb="61">
       <t>マシテイル</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>甘い調味料といったらこれ。人を虜にする甘さなので罪の粉と呼ばれるようになった、最高級のお砂糖。</t>
+    <rPh sb="0" eb="1">
+      <t>アマイ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>ヒト</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>ツミ</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t xml:space="preserve">コナ </t>
+    </rPh>
+    <rPh sb="39" eb="42">
+      <t>サイコウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -783,8 +786,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D00DF560-7FC8-4641-9DA6-1ECEF8377B32}">
   <dimension ref="A1:H10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -887,7 +890,7 @@
         <v>40</v>
       </c>
       <c r="G4" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -910,7 +913,7 @@
         <v>35</v>
       </c>
       <c r="G5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -933,7 +936,7 @@
         <v>32</v>
       </c>
       <c r="G6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -956,7 +959,7 @@
         <v>33</v>
       </c>
       <c r="G7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -979,7 +982,7 @@
         <v>39</v>
       </c>
       <c r="G8" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -1002,7 +1005,7 @@
         <v>37</v>
       </c>
       <c r="G9" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -1025,7 +1028,7 @@
         <v>38</v>
       </c>
       <c r="G10" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
   </sheetData>

--- a/MakeBread/Assets/Excel/BreadDate.xlsx
+++ b/MakeBread/Assets/Excel/BreadDate.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hb21a035/Documents/MakeBread_Git/MakeBread/Assets/Excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A337A07E-A1E9-184B-AD2B-31271ACAC40E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7D945E1-6CA0-1F45-9666-E5356D7B0E0A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="9780" yWindow="620" windowWidth="17020" windowHeight="16200" xr2:uid="{A67705B6-AD14-BC44-BA97-BEDBD709D183}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="57">
   <si>
     <t>id</t>
     <phoneticPr fontId="1"/>
@@ -420,6 +420,53 @@
     <rPh sb="39" eb="42">
       <t>サイコウ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>エビモドキ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>海老によく似た甲殻類。味は塩気のある海老そのものだが、実は陸上生物。マヨネーズをかけられがち。</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">エビ </t>
+    </rPh>
+    <rPh sb="7" eb="10">
+      <t>コウカクルイ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>アジ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>シオ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>エビソン</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>ジテゥ</t>
+    </rPh>
+    <rPh sb="29" eb="30">
+      <t xml:space="preserve">リク </t>
+    </rPh>
+    <rPh sb="30" eb="31">
+      <t>ジョウ</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>セイブテゥ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>salt_03</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>エビマヨサンド</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>04A9C9B2790000</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -784,10 +831,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D00DF560-7FC8-4641-9DA6-1ECEF8377B32}">
-  <dimension ref="A1:H10"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -1031,6 +1078,29 @@
         <v>50</v>
       </c>
     </row>
+    <row r="11" spans="1:8">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>54</v>
+      </c>
+      <c r="C11" t="s">
+        <v>52</v>
+      </c>
+      <c r="D11">
+        <v>4</v>
+      </c>
+      <c r="E11" t="s">
+        <v>56</v>
+      </c>
+      <c r="F11" t="s">
+        <v>55</v>
+      </c>
+      <c r="G11" t="s">
+        <v>53</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/MakeBread/Assets/Excel/BreadDate.xlsx
+++ b/MakeBread/Assets/Excel/BreadDate.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hb21a035/Documents/MakeBread_Git/MakeBread/Assets/Excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7D945E1-6CA0-1F45-9666-E5356D7B0E0A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4E6CE79-E5BA-5244-88E1-BE9B8B8AE1D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="9780" yWindow="620" windowWidth="17020" windowHeight="16200" xr2:uid="{A67705B6-AD14-BC44-BA97-BEDBD709D183}"/>
   </bookViews>
@@ -225,248 +225,251 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>モグモグ牧場自慢の美味しい牛乳。パンに混ぜて焼くと甘味が増す。</t>
-    <rPh sb="6" eb="8">
+    <t>エビモドキ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>salt_03</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>エビマヨサンド</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>04A9C9B2790000</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>モグモグ牧場&lt;style=p2-5&gt;ぼくじょう&lt;/style&gt;自慢&lt;style=p2-3&gt;じまん&lt;/style&gt;の美味&lt;style=p2&gt;おい&lt;/style&gt;しい牛乳&lt;style=p2-6&gt;ぎゅうにゅう&lt;/style&gt;。パンに混&lt;style=p1&gt;ま&lt;/style&gt;ぜて焼&lt;style=p1&gt;や&lt;/style&gt;くと甘味&lt;style=p2-3&gt;あまみ&lt;/style&gt;が増&lt;style=p1&gt;ま&lt;/style&gt;す。</t>
+    <rPh sb="5" eb="6">
+      <t>バメn</t>
+    </rPh>
+    <rPh sb="31" eb="33">
       <t>ジマn</t>
     </rPh>
-    <rPh sb="9" eb="11">
+    <rPh sb="57" eb="59">
       <t>オイシイ</t>
     </rPh>
-    <rPh sb="13" eb="15">
+    <rPh sb="81" eb="83">
       <t>ギュウニュウ</t>
     </rPh>
-    <rPh sb="25" eb="27">
+    <rPh sb="157" eb="159">
       <t>アマミ</t>
     </rPh>
-    <rPh sb="28" eb="29">
+    <rPh sb="183" eb="184">
       <t xml:space="preserve">マス </t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>暖かい地域に住むシリンバチから採取した蜂蜜。サラッとしていて、さっぱりとした甘味が特徴。お菓子によく用いられる。</t>
+    <t>暖&lt;style=p1-3&gt;あたた&lt;/style&gt;かい地域&lt;style=p2-3&gt;ちいき&lt;/style&gt;に住&lt;style=p1&gt;す&lt;/stylr&gt;むシリンバチから採取&lt;style=p2-4&gt;さいしゅ&lt;/style&gt;した蜂蜜&lt;style=p2-4&gt;はちみつ&lt;/style&gt;。サラッとしていて、さっぱりとした甘味&lt;style=p2-3&gt;あまみ&lt;/style&gt;が特徴&lt;style=p2-5&gt;とくちょう&lt;/style&gt;。お菓子&lt;style=p2&gt;かし&lt;/style&gt;によく用&lt;style=p1-2&gt;もち&lt;/style&gt;いられる。</t>
     <rPh sb="0" eb="1">
       <t>アタタカ</t>
     </rPh>
-    <rPh sb="19" eb="21">
+    <rPh sb="108" eb="110">
       <t>ハチミテゥ</t>
     </rPh>
-    <rPh sb="38" eb="40">
+    <rPh sb="151" eb="153">
       <t>アマミ</t>
     </rPh>
-    <rPh sb="41" eb="43">
+    <rPh sb="177" eb="179">
       <t>トクチョウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>大きく甘くするためにメロンをスライムで覆って育てた。食べるときはスライムをきれいに取り除く技術が必要。</t>
+    <t>甘&lt;style=p1-2&gt;あま&lt;/style&gt;い調味料&lt;style=p3-7&gt;ちょうみりょう&lt;/style&gt;といったらこれ。人&lt;style=p1-2&gt;ひと&lt;/style&gt;を虜&lt;style=p1-3&gt;とりこ&lt;/sytl&gt;eにする甘&lt;style=p1-2&gt;あま&lt;/style&gt;さなので罪&lt;style=p1-2&gt;つみ&lt;/style&gt;の粉&lt;style=p1-2&gt;こな&lt;/style&gt;と呼&lt;style=p1&gt;よ&lt;/style&gt;ばれるようになった、最高級&lt;style=p3-7&gt;さいこうきゅう&lt;/style&gt;のお砂糖&lt;style=p2-3&gt;さとう&lt;/style&gt;。</t>
+    <rPh sb="0" eb="1">
+      <t>アマイ</t>
+    </rPh>
+    <rPh sb="62" eb="63">
+      <t>ヒト</t>
+    </rPh>
+    <rPh sb="140" eb="141">
+      <t>ツミ</t>
+    </rPh>
+    <rPh sb="164" eb="165">
+      <t xml:space="preserve">コナ </t>
+    </rPh>
+    <rPh sb="218" eb="221">
+      <t>サイコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>大&lt;style=p1-2&gt;おお&lt;/style&gt;きく甘&lt;style=p1-2&gt;あま&lt;/style&gt;くするためにメロンをスライムで覆&lt;style=p1-2&gt;おお&lt;/style&gt;って育&lt;style=p1-2&gt;そだ&lt;/style&gt;てた。食&lt;style=p1&gt;た&lt;/style&gt;べるときはスライムをきれいに取&lt;style=p1&gt;と&lt;/style&gt;り除&lt;style=p1-2&gt;のぞ&lt;/style&gt;く技術&lt;style=p2-4&gt;ぎじゅつ&lt;/style&gt;が必要&lt;style=p2-4&gt;ひつよう&lt;/style&gt;。</t>
     <rPh sb="0" eb="1">
       <t>オオキク</t>
     </rPh>
-    <rPh sb="19" eb="20">
+    <rPh sb="63" eb="64">
       <t>オオッテ</t>
     </rPh>
-    <rPh sb="22" eb="23">
+    <rPh sb="88" eb="89">
       <t>ソダテ</t>
     </rPh>
-    <rPh sb="26" eb="27">
+    <rPh sb="114" eb="115">
       <t>タベ</t>
     </rPh>
-    <rPh sb="45" eb="47">
+    <rPh sb="193" eb="195">
       <t>ギジュテゥ</t>
     </rPh>
-    <rPh sb="48" eb="50">
+    <rPh sb="220" eb="222">
       <t>ヒツヨウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>暑い砂漠の環境に耐えているうちに辛味が増していった唐辛子。味のアクセントにぴったり。</t>
-    <rPh sb="5" eb="7">
+    <t>暑&lt;style=p1-2&gt;あつ&lt;/style&gt;い砂漠&lt;style=p2-3&gt;さばく&lt;/style&gt;の環境&lt;style=p2-5&gt;かんきょう&lt;/style&gt;に耐&lt;style=p1&gt;た&lt;/style&gt;えているうちに辛味&lt;style=p2-3&gt;からみ&lt;/style&gt;が増&lt;style=p1&gt;ま&lt;/style&lt;していった唐&lt;style=p1-2&gt;とう&lt;/style&gt;辛子&lt;style=p2-3&gt;からし&lt;/style&gt;。味&lt;style=p1-2&gt;あじ&lt;/style&gt;のアクセントにぴったり。</t>
+    <rPh sb="50" eb="52">
       <t>アツイ</t>
     </rPh>
-    <rPh sb="16" eb="18">
+    <rPh sb="105" eb="107">
       <t>カラミ</t>
     </rPh>
-    <rPh sb="19" eb="20">
+    <rPh sb="131" eb="132">
       <t>マシテ</t>
     </rPh>
-    <rPh sb="25" eb="28">
+    <rPh sb="156" eb="181">
       <t>トウガラセィ</t>
     </rPh>
-    <rPh sb="29" eb="30">
+    <rPh sb="205" eb="206">
       <t>アジ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>火山地域に生息している植物の実を細かく砕いたもの。スパイシーな香と、程よい辛味で食欲をそそる。</t>
-    <rPh sb="0" eb="4">
+    <t>火山&lt;style=p2-3&gt;かざん&lt;/style&gt;地域&lt;style=p2-3&gt;ちいき&lt;/style&gt;に生息&lt;style=p2-4&gt;せいそく&lt;/style&gt;している植物&lt;style=p2-5&gt;しょくぶつ&lt;/style&gt;の実&lt;style=p1&gt;み&lt;/sytle&gt;を細&lt;style=p1-2&gt;こま&lt;/style&gt;かく砕&lt;style=p1-2&gt;くだ&lt;/style&gt;いたもの。スパイシーな香&lt;style=p1-2&gt;かお&lt;/style&gt;りと、程&lt;style=p1-2&gt;ほど&lt;/style&gt;よい辛味&lt;style=p2-3&gt;からみ&lt;/style&gt;で食欲&lt;style=p2-5&gt;しょくよく&lt;/style&gt;をそそる。</t>
+    <rPh sb="0" eb="27">
       <t>カザn</t>
     </rPh>
-    <rPh sb="5" eb="7">
+    <rPh sb="51" eb="53">
       <t>セイソク</t>
     </rPh>
-    <rPh sb="14" eb="15">
+    <rPh sb="109" eb="110">
       <t xml:space="preserve">ミ </t>
     </rPh>
-    <rPh sb="16" eb="17">
+    <rPh sb="130" eb="131">
       <t>コマカ</t>
     </rPh>
-    <rPh sb="31" eb="32">
+    <rPh sb="189" eb="190">
       <t>カオリ</t>
     </rPh>
-    <rPh sb="34" eb="35">
+    <rPh sb="215" eb="216">
       <t>ホドヨイ</t>
     </rPh>
-    <rPh sb="37" eb="39">
+    <rPh sb="240" eb="242">
       <t>カラミ</t>
     </rPh>
-    <rPh sb="40" eb="42">
+    <rPh sb="266" eb="268">
       <t>ショクヨク</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>とても酸味の強い果実。主に海の近くで栽培される。パンの印象をガラッと変える味わい。</t>
+    <t>とても酸味&lt;style=p2-3&gt;さんみ&lt;/style&gt;の強&lt;style=p1-2&gt;つよ&lt;/style&gt;い果実&lt;style=p2-3&gt;かじつ&lt;/style&gt;。主&lt;style=p1-2&gt;おも&lt;/style&gt;に海&lt;style=p1-2&gt;うみ&lt;/style&gt;の近&lt;style=p1-2&gt;ちか&lt;/style&gt;くで栽培&lt;style=p2-4&gt;さいばい&lt;/style&gt;される。パンの印象&lt;style=p2-5&gt;いんしょう&lt;/style&gt;をガラッと変&lt;style=p1&gt;か&lt;/style&gt;える味&lt;style=p1-2&gt;あじ&lt;/style&gt;わい。</t>
     <rPh sb="3" eb="5">
       <t>サンミ</t>
     </rPh>
-    <rPh sb="8" eb="10">
+    <rPh sb="53" eb="55">
       <t>カジテゥ</t>
     </rPh>
-    <rPh sb="11" eb="12">
+    <rPh sb="79" eb="80">
       <t>オモニ</t>
     </rPh>
-    <rPh sb="13" eb="14">
+    <rPh sb="103" eb="104">
       <t>ウミ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>古くから愛される基本的な調味料。塩。海の水を蒸発させると得られることから海の材料だと考えられている。</t>
+    <t>古&lt;style=p1-2&gt;ふる&lt;/style&gt;くから愛&lt;style=p1-2&gt;あい&lt;/style&gt;される基本&lt;style=p2-3&gt;きほん&lt;/style&gt;的&lt;style=p1-2&gt;てき&lt;/style&gt;な調味料&lt;style=p3-7&gt;ちょうみりょう&lt;/style&gt;。塩&lt;style=p1-2&gt;しお&lt;/style&gt;。海&lt;style=p1-2&gt;うみ&lt;/style&gt;の水&lt;style=p1-2&gt;みず&lt;/style&gt;を蒸発&lt;style=p2-5&gt;じょうはつ&lt;/style&gt;させると得&lt;style=p1&gt;え&lt;/style&gt;られることから海&lt;style=p1-2&gt;うみ&lt;/style&gt;の材料&lt;style=p2-5&gt;ざいりょう&lt;/style&gt;だと考&lt;style=p1-3&gt;かんが&lt;/style&gt;えられている。</t>
     <rPh sb="0" eb="1">
       <t>フルク</t>
     </rPh>
-    <rPh sb="8" eb="11">
+    <rPh sb="52" eb="78">
       <t>キホn</t>
     </rPh>
-    <rPh sb="12" eb="15">
+    <rPh sb="101" eb="104">
       <t>チョウ</t>
     </rPh>
-    <rPh sb="16" eb="17">
+    <rPh sb="132" eb="133">
       <t xml:space="preserve">シオ </t>
     </rPh>
-    <rPh sb="18" eb="19">
+    <rPh sb="156" eb="157">
       <t>ウミ</t>
     </rPh>
-    <rPh sb="22" eb="24">
+    <rPh sb="204" eb="206">
       <t>ジョウハテゥ</t>
     </rPh>
-    <rPh sb="28" eb="29">
+    <rPh sb="235" eb="236">
       <t>エラレ</t>
     </rPh>
-    <rPh sb="36" eb="37">
+    <rPh sb="262" eb="263">
       <t>ウミ</t>
     </rPh>
-    <rPh sb="38" eb="40">
+    <rPh sb="286" eb="288">
       <t>ザイリョウ</t>
     </rPh>
-    <rPh sb="42" eb="43">
+    <rPh sb="315" eb="316">
       <t>カンガエ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>マルクスープで作られたバターで、モグモグ牧場の人気商品。パンの材料にもトッピングにもなる優れもの。甘味が抑えられ、塩味が増している。</t>
-    <rPh sb="23" eb="27">
+    <t>マルクスープで作&lt;style=p1-2&gt;つく&lt;/style&gt;られたバターで、モグモグ牧場&lt;style=p2-5&gt;ぼくじょう&lt;/style&gt;の人気&lt;style=p2-3&gt;にんき&lt;/style&gt;商品&lt;style=p2-5&gt;しょうひん&lt;/style&gt;。パンの材料&lt;style=p2-5&gt;ざいりょう&lt;/style&gt;にもトッピングにもなる優&lt;style=p1-2&gt;すぐ&lt;/style&gt;れもの。甘味&lt;style=p2-3&gt;あまみ&lt;/style&gt;が抑&lt;style=p1-2&gt;おさ&lt;/style&gt;えられ、塩味&lt;style=p2-3&gt;えんみ&lt;/style&gt;が増&lt;style=p1&gt;ま&lt;/style&gt;している。</t>
+    <rPh sb="70" eb="97">
       <t>ニンキ</t>
     </rPh>
-    <rPh sb="31" eb="33">
+    <rPh sb="126" eb="128">
       <t>ザイリョウン</t>
     </rPh>
-    <rPh sb="44" eb="45">
+    <rPh sb="164" eb="165">
       <t>スグレ</t>
     </rPh>
-    <rPh sb="49" eb="51">
+    <rPh sb="191" eb="193">
       <t>アマミ</t>
     </rPh>
-    <rPh sb="57" eb="58">
+    <rPh sb="244" eb="245">
       <t>シオ</t>
     </rPh>
-    <rPh sb="58" eb="59">
+    <rPh sb="245" eb="246">
       <t>アジ</t>
     </rPh>
-    <rPh sb="60" eb="61">
+    <rPh sb="270" eb="271">
       <t>マシテイル</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>甘い調味料といったらこれ。人を虜にする甘さなので罪の粉と呼ばれるようになった、最高級のお砂糖。</t>
-    <rPh sb="0" eb="1">
-      <t>アマイ</t>
-    </rPh>
-    <rPh sb="13" eb="14">
-      <t>ヒト</t>
-    </rPh>
-    <rPh sb="24" eb="25">
-      <t>ツミ</t>
-    </rPh>
-    <rPh sb="26" eb="27">
-      <t xml:space="preserve">コナ </t>
-    </rPh>
-    <rPh sb="39" eb="42">
-      <t>サイコウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>エビモドキ</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>海老によく似た甲殻類。味は塩気のある海老そのものだが、実は陸上生物。マヨネーズをかけられがち。</t>
+    <t>海老&lt;style=p2&gt;えび&lt;/style&gt;によく似&lt;style=p1&gt;に&lt;/style&gt;た甲殻&lt;style=p2-4&gt;こうかく&lt;/style&gt;類&lt;style=p1-2&gt;るい&lt;/style&gt;。味&lt;style=p1-2&gt;あじ&lt;/style&gt;は塩気&lt;style=1-3&gt;しおけ&lt;/style&gt;のある海老&lt;style=p2&gt;えび&lt;/style&gt;そのものだが、実&lt;style=p1-2&gt;じつ&lt;/style&gt;は陸上&lt;style=p2-5&gt;りくじょう&lt;/style&gt;生物&lt;style=p2-4&gt;せいぶつ&lt;/style&gt;。マヨネーズをかけられがち。</t>
     <rPh sb="0" eb="2">
       <t xml:space="preserve">エビ </t>
     </rPh>
-    <rPh sb="7" eb="10">
+    <rPh sb="46" eb="73">
       <t>コウカクルイ</t>
     </rPh>
-    <rPh sb="11" eb="12">
+    <rPh sb="96" eb="97">
       <t>アジ</t>
     </rPh>
-    <rPh sb="13" eb="15">
+    <rPh sb="120" eb="122">
       <t>シオ</t>
     </rPh>
-    <rPh sb="18" eb="20">
+    <rPh sb="147" eb="149">
       <t>エビソン</t>
     </rPh>
-    <rPh sb="27" eb="28">
+    <rPh sb="176" eb="177">
       <t>ジテゥ</t>
     </rPh>
-    <rPh sb="29" eb="30">
+    <rPh sb="200" eb="201">
       <t xml:space="preserve">リク </t>
     </rPh>
-    <rPh sb="30" eb="31">
+    <rPh sb="201" eb="202">
       <t>ジョウ</t>
     </rPh>
-    <rPh sb="31" eb="33">
+    <rPh sb="227" eb="229">
       <t>セイブテゥ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>salt_03</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>エビマヨサンド</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>04A9C9B2790000</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -513,9 +516,12 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -834,7 +840,7 @@
   <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -843,6 +849,7 @@
     <col min="3" max="3" width="14.7109375" customWidth="1"/>
     <col min="4" max="4" width="5.85546875" customWidth="1"/>
     <col min="5" max="5" width="16.5703125" customWidth="1"/>
+    <col min="7" max="7" width="36.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
@@ -871,7 +878,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:8" ht="139" customHeight="1">
       <c r="A2">
         <v>1</v>
       </c>
@@ -890,11 +897,11 @@
       <c r="F2" t="s">
         <v>34</v>
       </c>
-      <c r="G2" t="s">
-        <v>43</v>
+      <c r="G2" s="1" t="s">
+        <v>47</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:8" ht="189">
       <c r="A3">
         <v>2</v>
       </c>
@@ -913,11 +920,11 @@
       <c r="F3" t="s">
         <v>40</v>
       </c>
-      <c r="G3" t="s">
-        <v>44</v>
+      <c r="G3" s="1" t="s">
+        <v>48</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:8" ht="210">
       <c r="A4">
         <v>3</v>
       </c>
@@ -936,11 +943,11 @@
       <c r="F4" t="s">
         <v>40</v>
       </c>
-      <c r="G4" t="s">
-        <v>51</v>
+      <c r="G4" s="1" t="s">
+        <v>49</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:8" ht="189">
       <c r="A5">
         <v>4</v>
       </c>
@@ -959,11 +966,11 @@
       <c r="F5" t="s">
         <v>35</v>
       </c>
-      <c r="G5" t="s">
-        <v>45</v>
+      <c r="G5" s="1" t="s">
+        <v>50</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:8" ht="189">
       <c r="A6">
         <v>5</v>
       </c>
@@ -982,11 +989,11 @@
       <c r="F6" t="s">
         <v>32</v>
       </c>
-      <c r="G6" t="s">
-        <v>46</v>
+      <c r="G6" s="1" t="s">
+        <v>51</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:8" ht="210">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1005,11 +1012,11 @@
       <c r="F7" t="s">
         <v>33</v>
       </c>
-      <c r="G7" t="s">
-        <v>47</v>
+      <c r="G7" s="1" t="s">
+        <v>52</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:8" ht="189">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1028,11 +1035,11 @@
       <c r="F8" t="s">
         <v>39</v>
       </c>
-      <c r="G8" t="s">
-        <v>48</v>
+      <c r="G8" s="1" t="s">
+        <v>53</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:8" ht="252">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1051,11 +1058,11 @@
       <c r="F9" t="s">
         <v>37</v>
       </c>
-      <c r="G9" t="s">
-        <v>49</v>
+      <c r="G9" s="1" t="s">
+        <v>54</v>
       </c>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:8" ht="231">
       <c r="A10">
         <v>9</v>
       </c>
@@ -1074,31 +1081,31 @@
       <c r="F10" t="s">
         <v>38</v>
       </c>
-      <c r="G10" t="s">
-        <v>50</v>
+      <c r="G10" s="1" t="s">
+        <v>55</v>
       </c>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:8" ht="189">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="C11" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="D11">
         <v>4</v>
       </c>
       <c r="E11" t="s">
+        <v>46</v>
+      </c>
+      <c r="F11" t="s">
+        <v>45</v>
+      </c>
+      <c r="G11" s="1" t="s">
         <v>56</v>
-      </c>
-      <c r="F11" t="s">
-        <v>55</v>
-      </c>
-      <c r="G11" t="s">
-        <v>53</v>
       </c>
     </row>
   </sheetData>

--- a/MakeBread/Assets/Excel/BreadDate.xlsx
+++ b/MakeBread/Assets/Excel/BreadDate.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hb21a035/Documents/MakeBread_Git/MakeBread/Assets/Excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4E6CE79-E5BA-5244-88E1-BE9B8B8AE1D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F08928B7-6E08-584E-87CC-3CCB06B2FE28}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="9780" yWindow="620" windowWidth="17020" windowHeight="16200" xr2:uid="{A67705B6-AD14-BC44-BA97-BEDBD709D183}"/>
   </bookViews>
@@ -263,41 +263,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>暖&lt;style=p1-3&gt;あたた&lt;/style&gt;かい地域&lt;style=p2-3&gt;ちいき&lt;/style&gt;に住&lt;style=p1&gt;す&lt;/stylr&gt;むシリンバチから採取&lt;style=p2-4&gt;さいしゅ&lt;/style&gt;した蜂蜜&lt;style=p2-4&gt;はちみつ&lt;/style&gt;。サラッとしていて、さっぱりとした甘味&lt;style=p2-3&gt;あまみ&lt;/style&gt;が特徴&lt;style=p2-5&gt;とくちょう&lt;/style&gt;。お菓子&lt;style=p2&gt;かし&lt;/style&gt;によく用&lt;style=p1-2&gt;もち&lt;/style&gt;いられる。</t>
-    <rPh sb="0" eb="1">
-      <t>アタタカ</t>
-    </rPh>
-    <rPh sb="108" eb="110">
-      <t>ハチミテゥ</t>
-    </rPh>
-    <rPh sb="151" eb="153">
-      <t>アマミ</t>
-    </rPh>
-    <rPh sb="177" eb="179">
-      <t>トクチョウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>甘&lt;style=p1-2&gt;あま&lt;/style&gt;い調味料&lt;style=p3-7&gt;ちょうみりょう&lt;/style&gt;といったらこれ。人&lt;style=p1-2&gt;ひと&lt;/style&gt;を虜&lt;style=p1-3&gt;とりこ&lt;/sytl&gt;eにする甘&lt;style=p1-2&gt;あま&lt;/style&gt;さなので罪&lt;style=p1-2&gt;つみ&lt;/style&gt;の粉&lt;style=p1-2&gt;こな&lt;/style&gt;と呼&lt;style=p1&gt;よ&lt;/style&gt;ばれるようになった、最高級&lt;style=p3-7&gt;さいこうきゅう&lt;/style&gt;のお砂糖&lt;style=p2-3&gt;さとう&lt;/style&gt;。</t>
-    <rPh sb="0" eb="1">
-      <t>アマイ</t>
-    </rPh>
-    <rPh sb="62" eb="63">
-      <t>ヒト</t>
-    </rPh>
-    <rPh sb="140" eb="141">
-      <t>ツミ</t>
-    </rPh>
-    <rPh sb="164" eb="165">
-      <t xml:space="preserve">コナ </t>
-    </rPh>
-    <rPh sb="218" eb="221">
-      <t>サイコウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>大&lt;style=p1-2&gt;おお&lt;/style&gt;きく甘&lt;style=p1-2&gt;あま&lt;/style&gt;くするためにメロンをスライムで覆&lt;style=p1-2&gt;おお&lt;/style&gt;って育&lt;style=p1-2&gt;そだ&lt;/style&gt;てた。食&lt;style=p1&gt;た&lt;/style&gt;べるときはスライムをきれいに取&lt;style=p1&gt;と&lt;/style&gt;り除&lt;style=p1-2&gt;のぞ&lt;/style&gt;く技術&lt;style=p2-4&gt;ぎじゅつ&lt;/style&gt;が必要&lt;style=p2-4&gt;ひつよう&lt;/style&gt;。</t>
     <rPh sb="0" eb="1">
       <t>オオキク</t>
@@ -320,53 +285,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>暑&lt;style=p1-2&gt;あつ&lt;/style&gt;い砂漠&lt;style=p2-3&gt;さばく&lt;/style&gt;の環境&lt;style=p2-5&gt;かんきょう&lt;/style&gt;に耐&lt;style=p1&gt;た&lt;/style&gt;えているうちに辛味&lt;style=p2-3&gt;からみ&lt;/style&gt;が増&lt;style=p1&gt;ま&lt;/style&lt;していった唐&lt;style=p1-2&gt;とう&lt;/style&gt;辛子&lt;style=p2-3&gt;からし&lt;/style&gt;。味&lt;style=p1-2&gt;あじ&lt;/style&gt;のアクセントにぴったり。</t>
-    <rPh sb="50" eb="52">
-      <t>アツイ</t>
-    </rPh>
-    <rPh sb="105" eb="107">
-      <t>カラミ</t>
-    </rPh>
-    <rPh sb="131" eb="132">
-      <t>マシテ</t>
-    </rPh>
-    <rPh sb="156" eb="181">
-      <t>トウガラセィ</t>
-    </rPh>
-    <rPh sb="205" eb="206">
-      <t>アジ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>火山&lt;style=p2-3&gt;かざん&lt;/style&gt;地域&lt;style=p2-3&gt;ちいき&lt;/style&gt;に生息&lt;style=p2-4&gt;せいそく&lt;/style&gt;している植物&lt;style=p2-5&gt;しょくぶつ&lt;/style&gt;の実&lt;style=p1&gt;み&lt;/sytle&gt;を細&lt;style=p1-2&gt;こま&lt;/style&gt;かく砕&lt;style=p1-2&gt;くだ&lt;/style&gt;いたもの。スパイシーな香&lt;style=p1-2&gt;かお&lt;/style&gt;りと、程&lt;style=p1-2&gt;ほど&lt;/style&gt;よい辛味&lt;style=p2-3&gt;からみ&lt;/style&gt;で食欲&lt;style=p2-5&gt;しょくよく&lt;/style&gt;をそそる。</t>
-    <rPh sb="0" eb="27">
-      <t>カザn</t>
-    </rPh>
-    <rPh sb="51" eb="53">
-      <t>セイソク</t>
-    </rPh>
-    <rPh sb="109" eb="110">
-      <t xml:space="preserve">ミ </t>
-    </rPh>
-    <rPh sb="130" eb="131">
-      <t>コマカ</t>
-    </rPh>
-    <rPh sb="189" eb="190">
-      <t>カオリ</t>
-    </rPh>
-    <rPh sb="215" eb="216">
-      <t>ホドヨイ</t>
-    </rPh>
-    <rPh sb="240" eb="242">
-      <t>カラミ</t>
-    </rPh>
-    <rPh sb="266" eb="268">
-      <t>ショクヨク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>とても酸味&lt;style=p2-3&gt;さんみ&lt;/style&gt;の強&lt;style=p1-2&gt;つよ&lt;/style&gt;い果実&lt;style=p2-3&gt;かじつ&lt;/style&gt;。主&lt;style=p1-2&gt;おも&lt;/style&gt;に海&lt;style=p1-2&gt;うみ&lt;/style&gt;の近&lt;style=p1-2&gt;ちか&lt;/style&gt;くで栽培&lt;style=p2-4&gt;さいばい&lt;/style&gt;される。パンの印象&lt;style=p2-5&gt;いんしょう&lt;/style&gt;をガラッと変&lt;style=p1&gt;か&lt;/style&gt;える味&lt;style=p1-2&gt;あじ&lt;/style&gt;わい。</t>
     <rPh sb="3" eb="5">
       <t>サンミ</t>
@@ -442,7 +360,26 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>海老&lt;style=p2&gt;えび&lt;/style&gt;によく似&lt;style=p1&gt;に&lt;/style&gt;た甲殻&lt;style=p2-4&gt;こうかく&lt;/style&gt;類&lt;style=p1-2&gt;るい&lt;/style&gt;。味&lt;style=p1-2&gt;あじ&lt;/style&gt;は塩気&lt;style=1-3&gt;しおけ&lt;/style&gt;のある海老&lt;style=p2&gt;えび&lt;/style&gt;そのものだが、実&lt;style=p1-2&gt;じつ&lt;/style&gt;は陸上&lt;style=p2-5&gt;りくじょう&lt;/style&gt;生物&lt;style=p2-4&gt;せいぶつ&lt;/style&gt;。マヨネーズをかけられがち。</t>
+    <t>暑&lt;style=p1-2&gt;あつ&lt;/style&gt;い砂漠&lt;style=p2-3&gt;さばく&lt;/style&gt;の環境&lt;style=p2-5&gt;かんきょう&lt;/style&gt;に耐&lt;style=p1&gt;た&lt;/style&gt;えているうちに辛味&lt;style=p2-3&gt;からみ&lt;/style&gt;が増&lt;style=p1&gt;ま&lt;/style&gt;していった唐&lt;style=p1-2&gt;とう&lt;/style&gt;辛子&lt;style=p2-3&gt;からし&lt;/style&gt;。味&lt;style=p1-2&gt;あじ&lt;/style&gt;のアクセントにぴったり。</t>
+    <rPh sb="50" eb="52">
+      <t>アツイ</t>
+    </rPh>
+    <rPh sb="105" eb="107">
+      <t>カラミ</t>
+    </rPh>
+    <rPh sb="131" eb="132">
+      <t>マシテ</t>
+    </rPh>
+    <rPh sb="156" eb="181">
+      <t>トウガラセィ</t>
+    </rPh>
+    <rPh sb="205" eb="206">
+      <t>アジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>海老&lt;style=p2&gt;えび&lt;/style&gt;によく似&lt;style=p1&gt;に&lt;/style&gt;た甲殻&lt;style=p2-4&gt;こうかく&lt;/style&gt;類&lt;style=p1-2&gt;るい&lt;/style&gt;。味&lt;style=p1-2&gt;あじ&lt;/style&gt;は塩気&lt;style=p1-3&gt;しおけ&lt;/style&gt;のある海老&lt;style=p2&gt;えび&lt;/style&gt;そのものだが、実&lt;style=p1-2&gt;じつ&lt;/style&gt;は陸上&lt;style=p2-5&gt;りくじょう&lt;/style&gt;生物&lt;style=p2-4&gt;せいぶつ&lt;/style&gt;。マヨネーズをかけられがち。</t>
     <rPh sb="0" eb="2">
       <t xml:space="preserve">エビ </t>
     </rPh>
@@ -455,20 +392,83 @@
     <rPh sb="120" eb="122">
       <t>シオ</t>
     </rPh>
-    <rPh sb="147" eb="149">
+    <rPh sb="148" eb="150">
       <t>エビソン</t>
     </rPh>
-    <rPh sb="176" eb="177">
+    <rPh sb="177" eb="178">
       <t>ジテゥ</t>
     </rPh>
-    <rPh sb="200" eb="201">
+    <rPh sb="201" eb="202">
       <t xml:space="preserve">リク </t>
     </rPh>
-    <rPh sb="201" eb="202">
+    <rPh sb="202" eb="203">
       <t>ジョウ</t>
     </rPh>
-    <rPh sb="227" eb="229">
+    <rPh sb="228" eb="230">
       <t>セイブテゥ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>暖&lt;style=p1-3&gt;あたた&lt;/style&gt;かい地域&lt;style=p2-3&gt;ちいき&lt;/style&gt;に住&lt;style=p1&gt;す&lt;/style&gt;むシリンバチから採取&lt;style=p2-4&gt;さいしゅ&lt;/style&gt;した蜂蜜&lt;style=p2-4&gt;はちみつ&lt;/style&gt;。サラッとしていて、さっぱりとした甘味&lt;style=p2-3&gt;あまみ&lt;/style&gt;が特徴&lt;style=p2-5&gt;とくちょう&lt;/style&gt;。お菓子&lt;style=p2&gt;かし&lt;/style&gt;によく用&lt;style=p1-2&gt;もち&lt;/style&gt;いられる。</t>
+    <rPh sb="0" eb="1">
+      <t>アタタカ</t>
+    </rPh>
+    <rPh sb="108" eb="110">
+      <t>ハチミテゥ</t>
+    </rPh>
+    <rPh sb="151" eb="153">
+      <t>アマミ</t>
+    </rPh>
+    <rPh sb="177" eb="179">
+      <t>トクチョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>甘&lt;style=p1-2&gt;あま&lt;/style&gt;い調味料&lt;style=p3-7&gt;ちょうみりょう&lt;/style&gt;といったらこれ。人&lt;style=p1-2&gt;ひと&lt;/style&gt;を虜&lt;style=p1-3&gt;とりこ&lt;/style&gt;にする甘&lt;style=p1-2&gt;あま&lt;/style&gt;さなので罪&lt;style=p1-2&gt;つみ&lt;/style&gt;の粉&lt;style=p1-2&gt;こな&lt;/style&gt;と呼&lt;style=p1&gt;よ&lt;/style&gt;ばれるようになった、最高級&lt;style=p3-7&gt;さいこうきゅう&lt;/style&gt;のお砂糖&lt;style=p2-3&gt;さとう&lt;/style&gt;。</t>
+    <rPh sb="0" eb="1">
+      <t>アマイ</t>
+    </rPh>
+    <rPh sb="62" eb="63">
+      <t>ヒト</t>
+    </rPh>
+    <rPh sb="140" eb="141">
+      <t>ツミ</t>
+    </rPh>
+    <rPh sb="164" eb="165">
+      <t xml:space="preserve">コナ </t>
+    </rPh>
+    <rPh sb="218" eb="221">
+      <t>サイコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>火山&lt;style=p2-3&gt;かざん&lt;/style&gt;地域&lt;style=p2-3&gt;ちいき&lt;/style&gt;に生息&lt;style=p2-4&gt;せいそく&lt;/style&gt;している植物&lt;style=p2-5&gt;しょくぶつ&lt;/style&gt;の実&lt;style=p1&gt;み&lt;/style&gt;を細&lt;style=p1-2&gt;こま&lt;/style&gt;かく砕&lt;style=p1-2&gt;くだ&lt;/style&gt;いたもの。スパイシーな香&lt;style=p1-2&gt;かお&lt;/style&gt;りと、程&lt;style=p1-2&gt;ほど&lt;/style&gt;よい辛味&lt;style=p2-3&gt;からみ&lt;/style&gt;で食欲&lt;style=p2-5&gt;しょくよく&lt;/style&gt;をそそる。</t>
+    <rPh sb="0" eb="27">
+      <t>カザn</t>
+    </rPh>
+    <rPh sb="51" eb="53">
+      <t>セイソク</t>
+    </rPh>
+    <rPh sb="109" eb="110">
+      <t xml:space="preserve">ミ </t>
+    </rPh>
+    <rPh sb="130" eb="131">
+      <t>コマカ</t>
+    </rPh>
+    <rPh sb="189" eb="190">
+      <t>カオリ</t>
+    </rPh>
+    <rPh sb="215" eb="216">
+      <t>ホドヨイ</t>
+    </rPh>
+    <rPh sb="240" eb="242">
+      <t>カラミ</t>
+    </rPh>
+    <rPh sb="266" eb="268">
+      <t>ショクヨク</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -839,8 +839,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D00DF560-7FC8-4641-9DA6-1ECEF8377B32}">
   <dimension ref="A1:H11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+    <sheetView tabSelected="1" topLeftCell="B6" workbookViewId="0">
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -921,7 +921,7 @@
         <v>40</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="210">
@@ -944,7 +944,7 @@
         <v>40</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="189">
@@ -967,7 +967,7 @@
         <v>35</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="189">
@@ -990,7 +990,7 @@
         <v>32</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="210">
@@ -1013,7 +1013,7 @@
         <v>33</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="189">
@@ -1036,7 +1036,7 @@
         <v>39</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="252">
@@ -1059,7 +1059,7 @@
         <v>37</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="231">
@@ -1082,7 +1082,7 @@
         <v>38</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="189">
@@ -1105,7 +1105,7 @@
         <v>45</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
   </sheetData>
